--- a/medicine/Enfance/Le_Journal_qui_s'effeuillait/Le_Journal_qui_s'effeuillait.xlsx
+++ b/medicine/Enfance/Le_Journal_qui_s'effeuillait/Le_Journal_qui_s'effeuillait.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Journal_qui_s%27effeuillait</t>
+          <t>Le_Journal_qui_s'effeuillait</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Journal qui s'effeuillait (titre original : The Mystery of Phantom Lake) est un roman de Robert Arthur, Jr. et de William Arden paru en 1973 aux États-Unis, faisant partie de la série policière pour adolescents Les Trois Jeunes Détectives.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Journal_qui_s%27effeuillait</t>
+          <t>Le_Journal_qui_s'effeuillait</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Les trois jeunes détectives » (Hannibal Jones, Peter Crentch et Bob Andy) sont amenés à entrer en possession d'un coffre de bois en teck massif. Peu après il est réclamé par un homme virulent : Java Jim. Les trois adolescents fouillent le coffre et y découvrent, dans un espace secret, un manuscrit ancien écrit par Angus Slunn en 1872. L'homme y parle d'un trésor qu'il a enterré en urgence, car il est poursuivi par des bandits.
 À force de recherches à la bibliothèque municipale et auprès de personnes susceptibles de leur donner des renseignements, le trio découvre les descendants d'Angus Slunn (Mme Slunn et son fils Harvey) mais aussi la suite du manuscrit. L'homme donnait, sous une forme codée, des indications à son épouse pour retrouver son trésor.
